--- a/teaching/traditional_assets/database/data/thailand/thailand_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.117</v>
+        <v>0.10005</v>
       </c>
       <c r="E2">
-        <v>0.213</v>
+        <v>0.08</v>
       </c>
       <c r="F2">
-        <v>0.2095</v>
+        <v>0.208</v>
       </c>
       <c r="G2">
-        <v>0.04539466018982407</v>
+        <v>0.06497921851293094</v>
       </c>
       <c r="H2">
-        <v>0.04539466018982407</v>
+        <v>0.06497921851293094</v>
       </c>
       <c r="I2">
-        <v>0.03584236087797119</v>
+        <v>0.05295665573392278</v>
       </c>
       <c r="J2">
-        <v>0.02928637946876779</v>
+        <v>0.04289862752905214</v>
       </c>
       <c r="K2">
-        <v>723.509</v>
+        <v>798.855</v>
       </c>
       <c r="L2">
-        <v>0.3242195972288195</v>
+        <v>0.3433587353164932</v>
       </c>
       <c r="M2">
-        <v>222.093</v>
+        <v>325.484</v>
       </c>
       <c r="N2">
-        <v>0.01465515421060272</v>
+        <v>0.01827411965504851</v>
       </c>
       <c r="O2">
-        <v>0.3069664648262841</v>
+        <v>0.4074381458462424</v>
       </c>
       <c r="P2">
-        <v>222.093</v>
+        <v>325.46</v>
       </c>
       <c r="Q2">
-        <v>0.01465515421060272</v>
+        <v>0.01827277218828602</v>
       </c>
       <c r="R2">
-        <v>0.3069664648262841</v>
+        <v>0.4074081028472</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>7.373634341473014e-05</v>
       </c>
       <c r="U2">
-        <v>472.445</v>
+        <v>631.272</v>
       </c>
       <c r="V2">
-        <v>0.03117502276536497</v>
+        <v>0.03544241825368308</v>
       </c>
       <c r="W2">
-        <v>0.1746341463414634</v>
+        <v>0.1181286549707602</v>
       </c>
       <c r="X2">
-        <v>0.04102183894398749</v>
+        <v>0.02869722948502292</v>
       </c>
       <c r="Y2">
-        <v>0.1336123073974759</v>
+        <v>0.08943142548573729</v>
       </c>
       <c r="Z2">
-        <v>0.1919387564651751</v>
+        <v>0.1692532239959241</v>
       </c>
       <c r="AA2">
-        <v>0.002366597362894926</v>
+        <v>0.002965147424764652</v>
       </c>
       <c r="AB2">
-        <v>0.03667910946539497</v>
+        <v>0.02762699276105521</v>
       </c>
       <c r="AC2">
-        <v>-0.03318029488087202</v>
+        <v>-0.02212274232734789</v>
       </c>
       <c r="AD2">
-        <v>10077.7</v>
+        <v>10328.2</v>
       </c>
       <c r="AE2">
-        <v>89.25169003186089</v>
+        <v>105.052871680063</v>
       </c>
       <c r="AF2">
-        <v>10166.95169003186</v>
+        <v>10433.25287168006</v>
       </c>
       <c r="AG2">
-        <v>9694.506690031862</v>
+        <v>9801.980871680062</v>
       </c>
       <c r="AH2">
-        <v>0.4015137703442639</v>
+        <v>0.3693912188379191</v>
       </c>
       <c r="AI2">
-        <v>0.7116249785547633</v>
+        <v>0.706173255931828</v>
       </c>
       <c r="AJ2">
-        <v>0.3901350181703224</v>
+        <v>0.3549747099847133</v>
       </c>
       <c r="AK2">
-        <v>0.7017627851327569</v>
+        <v>0.6930583909272153</v>
       </c>
       <c r="AL2">
-        <v>24.41</v>
+        <v>31.61</v>
       </c>
       <c r="AM2">
-        <v>22.787</v>
+        <v>30.19</v>
       </c>
       <c r="AN2">
-        <v>62.52683435293534</v>
+        <v>50.24445536318041</v>
       </c>
       <c r="AO2">
-        <v>1.917247029905776</v>
+        <v>2.634925656437836</v>
       </c>
       <c r="AP2">
-        <v>60.14932116862435</v>
+        <v>47.6845133109232</v>
       </c>
       <c r="AQ2">
-        <v>2.053802606749463</v>
+        <v>2.758860549850944</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amanah Leasing Public Company Limited (SET:AMANAH)</t>
+          <t>Next Capital Public Company Limited (SET:NCAP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,44 +727,41 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.195</v>
-      </c>
       <c r="G3">
-        <v>0.3833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3833333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4816491771961264</v>
+        <v>0.02239734299117935</v>
       </c>
       <c r="J3">
-        <v>0.4115284139289099</v>
+        <v>0.01764259978634798</v>
       </c>
       <c r="K3">
-        <v>7.15</v>
+        <v>5.63</v>
       </c>
       <c r="L3">
-        <v>0.3135964912280702</v>
+        <v>0.311049723756906</v>
       </c>
       <c r="M3">
-        <v>0.233</v>
+        <v>2.28</v>
       </c>
       <c r="N3">
-        <v>0.00214548802946593</v>
+        <v>0.01357951161405598</v>
       </c>
       <c r="O3">
-        <v>0.03258741258741259</v>
+        <v>0.4049733570159857</v>
       </c>
       <c r="P3">
-        <v>0.233</v>
+        <v>2.28</v>
       </c>
       <c r="Q3">
-        <v>0.00214548802946593</v>
+        <v>0.01357951161405598</v>
       </c>
       <c r="R3">
-        <v>0.03258741258741259</v>
+        <v>0.4049733570159857</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +770,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.25</v>
+        <v>0.198</v>
       </c>
       <c r="V3">
-        <v>0.0207182320441989</v>
-      </c>
-      <c r="W3">
-        <v>0.212797619047619</v>
+        <v>0.001179273377010125</v>
       </c>
       <c r="X3">
-        <v>0.03398353035842543</v>
-      </c>
-      <c r="Y3">
-        <v>0.1788140886891936</v>
+        <v>0.02375689577852977</v>
       </c>
       <c r="Z3">
-        <v>0.2576882830701038</v>
+        <v>15.29956127682749</v>
       </c>
       <c r="AA3">
-        <v>0.1060460504199038</v>
+        <v>0.2699240365137744</v>
       </c>
       <c r="AB3">
-        <v>0.03546263680772856</v>
+        <v>0.02762699276105521</v>
       </c>
       <c r="AC3">
-        <v>0.07058341361217524</v>
+        <v>0.2422970437527192</v>
       </c>
       <c r="AD3">
-        <v>61.4</v>
+        <v>83.8</v>
       </c>
       <c r="AE3">
-        <v>0.9069937996415837</v>
+        <v>1.183040459298269</v>
       </c>
       <c r="AF3">
-        <v>62.30699379964158</v>
+        <v>84.98304045929827</v>
       </c>
       <c r="AG3">
-        <v>60.05699379964158</v>
+        <v>84.78504045929827</v>
       </c>
       <c r="AH3">
-        <v>0.3645666711140305</v>
+        <v>0.3360567015682349</v>
       </c>
       <c r="AI3">
-        <v>0.5944927102742131</v>
+        <v>0.7346196998444086</v>
       </c>
       <c r="AJ3">
-        <v>0.356089554584301</v>
+        <v>0.335536446103762</v>
       </c>
       <c r="AK3">
-        <v>0.5855962774900629</v>
+        <v>0.7341647032559169</v>
       </c>
       <c r="AL3">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.310040646890946</v>
-      </c>
-      <c r="AO3">
-        <v>4.444444444444445</v>
+        <v>130.5295950155763</v>
       </c>
       <c r="AP3">
-        <v>5.193893781859517</v>
-      </c>
-      <c r="AQ3">
-        <v>4.444444444444445</v>
+        <v>132.0639259490627</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IFS Capital (Thailand) Public Company Limited (SET:IFS)</t>
+          <t>JMT Network Services Public Company Limited (SET:JMT)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,46 +844,49 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0381</v>
+        <v>0.35</v>
       </c>
       <c r="E4">
-        <v>0.127</v>
+        <v>0.498</v>
+      </c>
+      <c r="F4">
+        <v>0.27</v>
       </c>
       <c r="G4">
-        <v>0.6113333333333333</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="H4">
-        <v>0.6113333333333333</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="I4">
-        <v>0.7266666666666667</v>
+        <v>0.462764351238751</v>
       </c>
       <c r="J4">
-        <v>0.5675599128540305</v>
+        <v>0.3828567859376411</v>
       </c>
       <c r="K4">
-        <v>7.16</v>
+        <v>29</v>
       </c>
       <c r="L4">
-        <v>0.4773333333333333</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="M4">
-        <v>2.74</v>
+        <v>22</v>
       </c>
       <c r="N4">
-        <v>0.05299806576402321</v>
+        <v>0.01873297002724796</v>
       </c>
       <c r="O4">
-        <v>0.3826815642458101</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="P4">
-        <v>2.74</v>
+        <v>22</v>
       </c>
       <c r="Q4">
-        <v>0.05299806576402321</v>
+        <v>0.01873297002724796</v>
       </c>
       <c r="R4">
-        <v>0.3826815642458101</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +895,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>14</v>
+        <v>102.5</v>
       </c>
       <c r="V4">
-        <v>0.2707930367504836</v>
+        <v>0.08727861035422342</v>
       </c>
       <c r="W4">
-        <v>0.1746341463414634</v>
+        <v>0.2783109404990403</v>
       </c>
       <c r="X4">
-        <v>0.0413117627128074</v>
+        <v>0.02151728384135284</v>
       </c>
       <c r="Y4">
-        <v>0.133322383628656</v>
+        <v>0.2567936566576875</v>
       </c>
       <c r="Z4">
-        <v>0.1286449399656947</v>
+        <v>0.3585285387266438</v>
       </c>
       <c r="AA4">
-        <v>0.07301371091604165</v>
+        <v>0.1372650840038019</v>
       </c>
       <c r="AB4">
-        <v>0.03649810392869467</v>
+        <v>0.02349230129684088</v>
       </c>
       <c r="AC4">
-        <v>0.03651560698734699</v>
+        <v>0.113772782706961</v>
       </c>
       <c r="AD4">
-        <v>76.40000000000001</v>
+        <v>270.7</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>4.221933161593309</v>
       </c>
       <c r="AF4">
-        <v>76.40000000000001</v>
+        <v>274.9219331615933</v>
       </c>
       <c r="AG4">
-        <v>62.40000000000001</v>
+        <v>172.4219331615933</v>
       </c>
       <c r="AH4">
-        <v>0.5964090554254488</v>
+        <v>0.1896900384042837</v>
       </c>
       <c r="AI4">
-        <v>0.6156325543916197</v>
+        <v>0.6316821653827766</v>
       </c>
       <c r="AJ4">
-        <v>0.5468886941279579</v>
+        <v>0.1280213285187908</v>
       </c>
       <c r="AK4">
-        <v>0.5667574931880109</v>
+        <v>0.5182163121114501</v>
       </c>
       <c r="AL4">
-        <v>2.3</v>
+        <v>9.06</v>
       </c>
       <c r="AM4">
-        <v>2.3</v>
+        <v>9.06</v>
       </c>
       <c r="AN4">
-        <v>6.761061946902655</v>
+        <v>5.845768458332433</v>
       </c>
       <c r="AO4">
-        <v>4.739130434782609</v>
+        <v>4.845474613686534</v>
       </c>
       <c r="AP4">
-        <v>5.52212389380531</v>
+        <v>3.723452893981327</v>
       </c>
       <c r="AQ4">
-        <v>4.739130434782609</v>
+        <v>4.845474613686534</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +972,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AIRA Factoring Public Company Limited (SET:AF)</t>
+          <t>Amanah Leasing Public Company Limited (SET:AMANAH)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,46 +981,43 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0382</v>
-      </c>
-      <c r="E5">
-        <v>0.17</v>
+        <v>0.272</v>
       </c>
       <c r="G5">
-        <v>0.4538152610441767</v>
+        <v>0.5101214574898786</v>
       </c>
       <c r="H5">
-        <v>0.4538152610441767</v>
+        <v>0.5101214574898786</v>
       </c>
       <c r="I5">
-        <v>0.4316689664645297</v>
+        <v>0.5097735711595719</v>
       </c>
       <c r="J5">
-        <v>0.4316689664645297</v>
+        <v>0.4718161775500589</v>
       </c>
       <c r="K5">
-        <v>1.34</v>
+        <v>8.98</v>
       </c>
       <c r="L5">
-        <v>0.179384203480589</v>
+        <v>0.3635627530364373</v>
       </c>
       <c r="M5">
-        <v>1.57</v>
+        <v>3.62</v>
       </c>
       <c r="N5">
-        <v>0.04524495677233429</v>
+        <v>0.02673559822747415</v>
       </c>
       <c r="O5">
-        <v>1.171641791044776</v>
+        <v>0.4031180400890869</v>
       </c>
       <c r="P5">
-        <v>1.57</v>
+        <v>3.62</v>
       </c>
       <c r="Q5">
-        <v>0.04524495677233429</v>
+        <v>0.02673559822747415</v>
       </c>
       <c r="R5">
-        <v>1.171641791044776</v>
+        <v>0.4031180400890869</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1041,73 +1026,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.8120000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="V5">
-        <v>0.02340057636887608</v>
+        <v>0.01454948301329394</v>
       </c>
       <c r="W5">
-        <v>0.07701149425287357</v>
+        <v>0.2112941176470588</v>
       </c>
       <c r="X5">
-        <v>0.04209061778414971</v>
+        <v>0.02359303646169673</v>
       </c>
       <c r="Y5">
-        <v>0.03492087646872385</v>
+        <v>0.1877010811853621</v>
       </c>
       <c r="Z5">
-        <v>0.1164237538506458</v>
+        <v>0.2412392926303043</v>
       </c>
       <c r="AA5">
-        <v>0.05025652149662907</v>
+        <v>0.1138206009237103</v>
       </c>
       <c r="AB5">
-        <v>0.03667910946539497</v>
+        <v>0.02632030182461578</v>
       </c>
       <c r="AC5">
-        <v>0.0135774120312341</v>
+        <v>0.08750029909909449</v>
       </c>
       <c r="AD5">
-        <v>54</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.6121641025498165</v>
+        <v>0.7379639617928695</v>
       </c>
       <c r="AF5">
-        <v>54.61216410254982</v>
+        <v>65.83796396179287</v>
       </c>
       <c r="AG5">
-        <v>53.80016410254982</v>
+        <v>63.86796396179287</v>
       </c>
       <c r="AH5">
-        <v>0.6114750958205778</v>
+        <v>0.3271647290880606</v>
       </c>
       <c r="AI5">
-        <v>0.7510732870710242</v>
+        <v>0.5855492365920556</v>
       </c>
       <c r="AJ5">
-        <v>0.6079103315583542</v>
+        <v>0.3205129549777442</v>
       </c>
       <c r="AK5">
-        <v>0.7482620488294809</v>
+        <v>0.5781582430892149</v>
       </c>
       <c r="AL5">
-        <v>1.77</v>
+        <v>2.65</v>
       </c>
       <c r="AM5">
-        <v>1.77</v>
+        <v>2.65</v>
       </c>
       <c r="AN5">
-        <v>15.48609119587038</v>
+        <v>4.917289825515522</v>
       </c>
       <c r="AO5">
-        <v>1.751412429378531</v>
+        <v>4.679245283018868</v>
       </c>
       <c r="AP5">
-        <v>15.42878236379404</v>
+        <v>4.824228715295178</v>
       </c>
       <c r="AQ5">
-        <v>1.751412429378531</v>
+        <v>4.679245283018868</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1103,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phatra Leasing Public Company Limited (SET:PL)</t>
+          <t>IFS Capital (Thailand) Public Company Limited (SET:IFS)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1127,46 +1112,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.00726</v>
+        <v>0.0207</v>
       </c>
       <c r="E6">
-        <v>0.0592</v>
+        <v>0.0438</v>
       </c>
       <c r="G6">
-        <v>0.5212071778140294</v>
+        <v>0.9448818897637796</v>
       </c>
       <c r="H6">
-        <v>0.5212071778140294</v>
+        <v>0.9448818897637796</v>
       </c>
       <c r="I6">
-        <v>0.08964602077748544</v>
+        <v>0.5818897637795276</v>
       </c>
       <c r="J6">
-        <v>0.08964602077748544</v>
+        <v>0.4662955009411703</v>
       </c>
       <c r="K6">
-        <v>6.28</v>
+        <v>4.76</v>
       </c>
       <c r="L6">
-        <v>0.05122349102773247</v>
+        <v>0.3748031496062992</v>
       </c>
       <c r="M6">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
       <c r="N6">
-        <v>0.06981132075471698</v>
+        <v>0.08864734299516909</v>
       </c>
       <c r="O6">
-        <v>0.589171974522293</v>
+        <v>0.7710084033613446</v>
       </c>
       <c r="P6">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
       <c r="Q6">
-        <v>0.06981132075471698</v>
+        <v>0.08864734299516909</v>
       </c>
       <c r="R6">
-        <v>0.589171974522293</v>
+        <v>0.7710084033613446</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1175,73 +1160,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>5.16</v>
+        <v>11.3</v>
       </c>
       <c r="V6">
-        <v>0.09735849056603774</v>
+        <v>0.2729468599033817</v>
       </c>
       <c r="W6">
-        <v>0.06970033296337404</v>
+        <v>0.09979035639412998</v>
       </c>
       <c r="X6">
-        <v>0.07928643178191143</v>
+        <v>0.02869722948502292</v>
       </c>
       <c r="Y6">
-        <v>-0.009586098818537392</v>
+        <v>0.07109312690910705</v>
       </c>
       <c r="Z6">
-        <v>0.3193315485197306</v>
+        <v>0.1153496821071753</v>
       </c>
       <c r="AA6">
-        <v>0.02862680263350637</v>
+        <v>0.05378703780157004</v>
       </c>
       <c r="AB6">
-        <v>0.03966951116606876</v>
+        <v>0.02762149077764347</v>
       </c>
       <c r="AC6">
-        <v>-0.01104270853256239</v>
+        <v>0.02616554702392657</v>
       </c>
       <c r="AD6">
-        <v>326.2</v>
+        <v>45.8</v>
       </c>
       <c r="AE6">
-        <v>0.4069892634014275</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>326.6069892634014</v>
+        <v>45.8</v>
       </c>
       <c r="AG6">
-        <v>321.4469892634014</v>
+        <v>34.5</v>
       </c>
       <c r="AH6">
-        <v>0.8603819173539389</v>
+        <v>0.5252293577981652</v>
       </c>
       <c r="AI6">
-        <v>0.7693795332560373</v>
+        <v>0.4919441460794844</v>
       </c>
       <c r="AJ6">
-        <v>0.8584579352493669</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AK6">
-        <v>0.7665417839961961</v>
+        <v>0.421760391198044</v>
       </c>
       <c r="AL6">
-        <v>8.9</v>
+        <v>1.45</v>
       </c>
       <c r="AM6">
-        <v>8.887</v>
+        <v>1.45</v>
       </c>
       <c r="AN6">
-        <v>4.702185319725538</v>
+        <v>5.948051948051948</v>
       </c>
       <c r="AO6">
-        <v>1.213483146067416</v>
+        <v>5.096551724137931</v>
       </c>
       <c r="AP6">
-        <v>4.633670490448616</v>
+        <v>4.48051948051948</v>
       </c>
       <c r="AQ6">
-        <v>1.215258242376505</v>
+        <v>5.096551724137931</v>
       </c>
     </row>
     <row r="7">
@@ -1252,7 +1237,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mida Assets Public Company Limited (SET:MIDA)</t>
+          <t>AIRA Factoring Public Company Limited (SET:AF)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1261,118 +1246,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0292</v>
+        <v>0.0264</v>
       </c>
       <c r="E7">
-        <v>-0.3720000000000001</v>
+        <v>0.302</v>
       </c>
       <c r="G7">
-        <v>0.186558516801854</v>
+        <v>0.5151079136690647</v>
       </c>
       <c r="H7">
-        <v>0.186558516801854</v>
+        <v>0.5151079136690647</v>
       </c>
       <c r="I7">
-        <v>0.1331412433612914</v>
+        <v>0.4676798417988394</v>
       </c>
       <c r="J7">
-        <v>0.08625088258880574</v>
+        <v>0.3993266341513167</v>
       </c>
       <c r="K7">
-        <v>0.349</v>
+        <v>1.33</v>
       </c>
       <c r="L7">
-        <v>0.004044032444959444</v>
+        <v>0.1913669064748202</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>1.27</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.0335978835978836</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.9548872180451128</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>1.27</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.0335978835978836</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.9548872180451128</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="V7">
-        <v>0.07562076749435667</v>
+        <v>0.06878306878306879</v>
       </c>
       <c r="W7">
-        <v>0.002879537953795379</v>
+        <v>0.07348066298342541</v>
       </c>
       <c r="X7">
-        <v>0.05894047095880944</v>
+        <v>0.02893912683629513</v>
       </c>
       <c r="Y7">
-        <v>-0.05606093300501407</v>
+        <v>0.04454153614713028</v>
       </c>
       <c r="Z7">
-        <v>0.3090702408562128</v>
+        <v>0.09650616375136982</v>
       </c>
       <c r="AA7">
-        <v>0.02665758105578312</v>
+        <v>0.03853748154569032</v>
       </c>
       <c r="AB7">
-        <v>0.03876458958621006</v>
+        <v>0.03230729020743627</v>
       </c>
       <c r="AC7">
-        <v>-0.01210700853042694</v>
+        <v>0.006230191338254053</v>
       </c>
       <c r="AD7">
-        <v>161</v>
+        <v>42.2</v>
       </c>
       <c r="AE7">
-        <v>0.8045534896027597</v>
+        <v>0.7281254974903276</v>
       </c>
       <c r="AF7">
-        <v>161.8045534896028</v>
+        <v>42.92812549749033</v>
       </c>
       <c r="AG7">
-        <v>158.4545534896028</v>
+        <v>40.32812549749033</v>
       </c>
       <c r="AH7">
-        <v>0.7850605469411195</v>
+        <v>0.5317617030365072</v>
       </c>
       <c r="AI7">
-        <v>0.4931493689091095</v>
+        <v>0.7151335335181352</v>
       </c>
       <c r="AJ7">
-        <v>0.7815092226657603</v>
+        <v>0.5161793559066737</v>
       </c>
       <c r="AK7">
-        <v>0.4879209599586901</v>
+        <v>0.7022364938457326</v>
       </c>
       <c r="AL7">
-        <v>9.01</v>
+        <v>1.5</v>
       </c>
       <c r="AM7">
-        <v>7.399999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AN7">
-        <v>10.2215732334455</v>
+        <v>12.17541834968263</v>
       </c>
       <c r="AO7">
-        <v>1.243063263041065</v>
+        <v>2.04</v>
       </c>
       <c r="AP7">
-        <v>10.05996784265144</v>
+        <v>11.63535069171677</v>
       </c>
       <c r="AQ7">
-        <v>1.513513513513514</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="8">
@@ -1383,7 +1371,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srisawad Corporation Public Company Limited (SET:SAWAD)</t>
+          <t>Phatra Leasing Public Company Limited (SET:PL)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1392,49 +1380,46 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.315</v>
+        <v>1e-05</v>
       </c>
       <c r="E8">
-        <v>0.371</v>
-      </c>
-      <c r="F8">
-        <v>0.249</v>
+        <v>-0.125</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.6081314878892734</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6081314878892734</v>
       </c>
       <c r="I8">
-        <v>0.02745933803446641</v>
+        <v>0.0795007222519213</v>
       </c>
       <c r="J8">
-        <v>0.02212416773700894</v>
+        <v>0.0795007222519213</v>
       </c>
       <c r="K8">
-        <v>114.2</v>
+        <v>2.95</v>
       </c>
       <c r="L8">
-        <v>0.4457455113192819</v>
+        <v>0.02551903114186851</v>
       </c>
       <c r="M8">
-        <v>0.9399999999999999</v>
+        <v>2.83</v>
       </c>
       <c r="N8">
-        <v>0.0003101491355417711</v>
+        <v>0.06417233560090703</v>
       </c>
       <c r="O8">
-        <v>0.008231173380035026</v>
+        <v>0.9593220338983051</v>
       </c>
       <c r="P8">
-        <v>0.9399999999999999</v>
+        <v>2.83</v>
       </c>
       <c r="Q8">
-        <v>0.0003101491355417711</v>
+        <v>0.06417233560090703</v>
       </c>
       <c r="R8">
-        <v>0.008231173380035026</v>
+        <v>0.9593220338983051</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1443,67 +1428,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>54.3</v>
+        <v>9.9</v>
       </c>
       <c r="V8">
-        <v>0.0179160617658704</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="W8">
-        <v>0.3344070278184481</v>
+        <v>0.03013278855975485</v>
       </c>
       <c r="X8">
-        <v>0.03076053409067375</v>
+        <v>0.07273201761482123</v>
       </c>
       <c r="Y8">
-        <v>0.3036464937277743</v>
+        <v>-0.04259922905506638</v>
       </c>
       <c r="Z8">
-        <v>0.3190437800231682</v>
+        <v>0.2755506598712404</v>
       </c>
       <c r="AA8">
-        <v>0.007058578104681954</v>
+        <v>0.02190647647675712</v>
       </c>
       <c r="AB8">
-        <v>0.03185078300314823</v>
+        <v>0.03283023630733061</v>
       </c>
       <c r="AC8">
-        <v>-0.02479220489846627</v>
+        <v>-0.01092375983057349</v>
       </c>
       <c r="AD8">
-        <v>514.5</v>
+        <v>284.1</v>
       </c>
       <c r="AE8">
-        <v>19.32458797784854</v>
+        <v>0.583582538389481</v>
       </c>
       <c r="AF8">
-        <v>533.8245879778485</v>
+        <v>284.6835825383895</v>
       </c>
       <c r="AG8">
-        <v>479.5245879778485</v>
+        <v>274.7835825383895</v>
       </c>
       <c r="AH8">
-        <v>0.149756187447688</v>
+        <v>0.8658692150638306</v>
       </c>
       <c r="AI8">
-        <v>0.4691624645997202</v>
+        <v>0.7509784006791163</v>
       </c>
       <c r="AJ8">
-        <v>0.1366040592428755</v>
+        <v>0.8617050158275522</v>
       </c>
       <c r="AK8">
-        <v>0.4425599504601661</v>
+        <v>0.7443006556495946</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="AN8">
-        <v>47.20183486238532</v>
+        <v>4.448306637230496</v>
+      </c>
+      <c r="AO8">
+        <v>1.063020214030916</v>
       </c>
       <c r="AP8">
-        <v>43.99308146585766</v>
+        <v>4.302434473803209</v>
+      </c>
+      <c r="AQ8">
+        <v>1.063020214030916</v>
       </c>
     </row>
     <row r="9">
@@ -1514,7 +1505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muangthai Capital Public Company Limited (SET:MTC)</t>
+          <t>Srisawad Corporation Public Company Limited (SET:SAWAD)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1523,13 +1514,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.462</v>
+        <v>0.26</v>
       </c>
       <c r="E9">
-        <v>0.509</v>
+        <v>0.29</v>
       </c>
       <c r="F9">
-        <v>0.272</v>
+        <v>0.163</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1538,34 +1529,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02433582576772762</v>
+        <v>0.03401033561249057</v>
       </c>
       <c r="J9">
-        <v>0.01943104280978489</v>
+        <v>0.02730906750882201</v>
       </c>
       <c r="K9">
-        <v>134.3</v>
+        <v>136.5</v>
       </c>
       <c r="L9">
-        <v>0.406969696969697</v>
+        <v>0.44578706727629</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>60.9</v>
       </c>
       <c r="N9">
-        <v>0.003989096469649624</v>
+        <v>0.02024870328501131</v>
       </c>
       <c r="O9">
-        <v>0.1340282948622487</v>
+        <v>0.4461538461538461</v>
       </c>
       <c r="P9">
-        <v>18</v>
+        <v>60.9</v>
       </c>
       <c r="Q9">
-        <v>0.003989096469649624</v>
+        <v>0.02024870328501131</v>
       </c>
       <c r="R9">
-        <v>0.1340282948622487</v>
+        <v>0.4461538461538461</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1574,55 +1565,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>31.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="V9">
-        <v>0.006914433880726015</v>
+        <v>0.02373985902380636</v>
       </c>
       <c r="W9">
-        <v>0.3844832522187232</v>
+        <v>0.2493150684931507</v>
       </c>
       <c r="X9">
-        <v>0.03190754375891124</v>
+        <v>0.02149474123935315</v>
       </c>
       <c r="Y9">
-        <v>0.352575708459812</v>
+        <v>0.2278203272537975</v>
       </c>
       <c r="Z9">
-        <v>0.238293663564056</v>
+        <v>0.2952377696005454</v>
       </c>
       <c r="AA9">
-        <v>0.004630294378013652</v>
+        <v>0.008062668181175332</v>
       </c>
       <c r="AB9">
-        <v>0.03338601382126036</v>
+        <v>0.02345523193579391</v>
       </c>
       <c r="AC9">
-        <v>-0.02875571944324671</v>
+        <v>-0.01539256375461858</v>
       </c>
       <c r="AD9">
-        <v>1411.4</v>
+        <v>666.4</v>
       </c>
       <c r="AE9">
-        <v>21.84588748324943</v>
+        <v>29.43017617727695</v>
       </c>
       <c r="AF9">
-        <v>1433.24588748325</v>
+        <v>695.8301761772769</v>
       </c>
       <c r="AG9">
-        <v>1402.04588748325</v>
+        <v>624.430176177277</v>
       </c>
       <c r="AH9">
-        <v>0.2410621185349127</v>
+        <v>0.1878880235553734</v>
       </c>
       <c r="AI9">
-        <v>0.7469701417122968</v>
+        <v>0.4927521470158877</v>
       </c>
       <c r="AJ9">
-        <v>0.237058486966488</v>
+        <v>0.1719231795685386</v>
       </c>
       <c r="AK9">
-        <v>0.7427877101057717</v>
+        <v>0.4657388841337693</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1631,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>113.8225806451613</v>
+        <v>40.88343558282208</v>
       </c>
       <c r="AP9">
-        <v>113.0682167325201</v>
+        <v>38.30859976547711</v>
       </c>
     </row>
     <row r="10">
@@ -1654,10 +1645,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.5760000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="E10">
-        <v>0.379</v>
+        <v>0.794</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1666,88 +1657,91 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.006021683435144424</v>
+        <v>0.006972873507082332</v>
       </c>
       <c r="J10">
-        <v>0.004843107960672307</v>
+        <v>0.005580331713393878</v>
       </c>
       <c r="K10">
-        <v>15.1</v>
+        <v>54.9</v>
       </c>
       <c r="L10">
-        <v>0.1782762691853601</v>
+        <v>0.4684300341296928</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>39.3</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.07254938157651836</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0.7158469945355191</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>39.3</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.07254938157651836</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0.7158469945355191</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
       <c r="U10">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="V10">
-        <v>0.02447372924867363</v>
+        <v>0.02750599963079195</v>
       </c>
       <c r="W10">
-        <v>0.1992084432717678</v>
+        <v>0.1895063859164653</v>
       </c>
       <c r="X10">
-        <v>0.03026976607349772</v>
+        <v>0.02026816680730689</v>
       </c>
       <c r="Y10">
-        <v>0.1689386771982701</v>
+        <v>0.1692382191091584</v>
       </c>
       <c r="Z10">
-        <v>0.2857241002188519</v>
+        <v>0.3422758285407522</v>
       </c>
       <c r="AA10">
-        <v>0.001383792664325853</v>
+        <v>0.001910012660734125</v>
       </c>
       <c r="AB10">
-        <v>0.03107494397297991</v>
+        <v>0.0211554723665722</v>
       </c>
       <c r="AC10">
-        <v>-0.02969115130865406</v>
+        <v>-0.01924545970583808</v>
       </c>
       <c r="AD10">
-        <v>65.59999999999999</v>
+        <v>43.2</v>
       </c>
       <c r="AE10">
-        <v>1.939817065216337</v>
+        <v>1.413896124849754</v>
       </c>
       <c r="AF10">
-        <v>67.53981706521633</v>
+        <v>44.61389612484976</v>
       </c>
       <c r="AG10">
-        <v>53.23981706521633</v>
+        <v>29.71389612484976</v>
       </c>
       <c r="AH10">
-        <v>0.1036141323328504</v>
+        <v>0.07609216909187781</v>
       </c>
       <c r="AI10">
-        <v>0.1890601602589179</v>
+        <v>0.1310193112015964</v>
       </c>
       <c r="AJ10">
-        <v>0.08350822276527747</v>
+        <v>0.05200065368791362</v>
       </c>
       <c r="AK10">
-        <v>0.155245364976362</v>
+        <v>0.09125500010434627</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1756,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>73.05122494432071</v>
+        <v>39.27272727272727</v>
       </c>
       <c r="AP10">
-        <v>59.28710140892687</v>
+        <v>27.01263284077251</v>
       </c>
     </row>
     <row r="11">
@@ -1770,7 +1764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SGF Capital Public Company Limited (SET:SGF)</t>
+          <t>Thitikorn Public Company Limited (SET:TK)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1779,10 +1773,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.499</v>
+        <v>-0.0279</v>
       </c>
       <c r="E11">
-        <v>0.473</v>
+        <v>0.0238</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1791,88 +1785,91 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02816670780444111</v>
+        <v>0.02369771382998836</v>
       </c>
       <c r="J11">
-        <v>0.02816670780444111</v>
+        <v>0.01938080545076755</v>
       </c>
       <c r="K11">
-        <v>3.53</v>
+        <v>12.7</v>
       </c>
       <c r="L11">
-        <v>0.3624229979466119</v>
+        <v>0.25</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.06539039039039041</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0.6858267716535434</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.06539039039039041</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0.6858267716535434</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>1.69</v>
+        <v>48.2</v>
       </c>
       <c r="V11">
-        <v>0.05297805642633229</v>
+        <v>0.3618618618618619</v>
       </c>
       <c r="W11">
-        <v>0.06711026615969581</v>
+        <v>0.07729762629336578</v>
       </c>
       <c r="X11">
-        <v>0.03386570294110343</v>
+        <v>0.02312102098394376</v>
       </c>
       <c r="Y11">
-        <v>0.03324456321859239</v>
+        <v>0.05417660530942203</v>
       </c>
       <c r="Z11">
-        <v>0.1882406370506733</v>
+        <v>0.1852454340563174</v>
       </c>
       <c r="AA11">
-        <v>0.005302119020728166</v>
+        <v>0.003590205718088478</v>
       </c>
       <c r="AB11">
-        <v>0.03536303364073474</v>
+        <v>0.02418002889595752</v>
       </c>
       <c r="AC11">
-        <v>-0.03006091462000657</v>
+        <v>-0.02058982317786904</v>
       </c>
       <c r="AD11">
-        <v>17.3</v>
+        <v>54</v>
       </c>
       <c r="AE11">
-        <v>0.5382813299237179</v>
+        <v>3.130780687182958</v>
       </c>
       <c r="AF11">
-        <v>17.83828132992372</v>
+        <v>57.13078068718296</v>
       </c>
       <c r="AG11">
-        <v>16.14828132992372</v>
+        <v>8.930780687182953</v>
       </c>
       <c r="AH11">
-        <v>0.3586428974414882</v>
+        <v>0.3001657455557855</v>
       </c>
       <c r="AI11">
-        <v>0.2318518300848222</v>
+        <v>0.2546720539739427</v>
       </c>
       <c r="AJ11">
-        <v>0.3360844734287472</v>
+        <v>0.06283495133146982</v>
       </c>
       <c r="AK11">
-        <v>0.2146000020800752</v>
+        <v>0.05070539432312211</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1881,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>45.28795811518324</v>
+        <v>29.50819672131147</v>
       </c>
       <c r="AP11">
-        <v>42.27298777466941</v>
+        <v>4.880208025783034</v>
       </c>
     </row>
     <row r="12">
@@ -1895,7 +1892,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thitikorn Public Company Limited (SET:TK)</t>
+          <t>Muangthai Capital Public Company Limited (SET:MTC)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1904,10 +1901,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0562</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="E12">
-        <v>0.227</v>
+        <v>0.467</v>
+      </c>
+      <c r="F12">
+        <v>0.208</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1916,34 +1916,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01185018281080703</v>
+        <v>0.02562351719644705</v>
       </c>
       <c r="J12">
-        <v>0.00944387017881662</v>
+        <v>0.02052748707243342</v>
       </c>
       <c r="K12">
-        <v>15.5</v>
+        <v>157.5</v>
       </c>
       <c r="L12">
-        <v>0.205026455026455</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="M12">
-        <v>7.35</v>
+        <v>20.1</v>
       </c>
       <c r="N12">
-        <v>0.04403834631515877</v>
+        <v>0.004823961408308734</v>
       </c>
       <c r="O12">
-        <v>0.4741935483870968</v>
+        <v>0.1276190476190476</v>
       </c>
       <c r="P12">
-        <v>7.35</v>
+        <v>20.1</v>
       </c>
       <c r="Q12">
-        <v>0.04403834631515877</v>
+        <v>0.004823961408308734</v>
       </c>
       <c r="R12">
-        <v>0.4741935483870968</v>
+        <v>0.1276190476190476</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1952,55 +1952,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>13.2</v>
+        <v>25.1</v>
       </c>
       <c r="V12">
-        <v>0.07908927501497902</v>
+        <v>0.006023951808385533</v>
       </c>
       <c r="W12">
-        <v>0.1040268456375839</v>
+        <v>0.3244078269824923</v>
       </c>
       <c r="X12">
-        <v>0.03527378352624048</v>
+        <v>0.02289488806629385</v>
       </c>
       <c r="Y12">
-        <v>0.06875306211134341</v>
+        <v>0.3015129389161984</v>
       </c>
       <c r="Z12">
-        <v>0.250596134644396</v>
+        <v>0.2110462246486201</v>
       </c>
       <c r="AA12">
-        <v>0.002366597362894926</v>
+        <v>0.004332248648160428</v>
       </c>
       <c r="AB12">
-        <v>0.03441392488569284</v>
+        <v>0.02548272264811427</v>
       </c>
       <c r="AC12">
-        <v>-0.03204732752279791</v>
+        <v>-0.02115047399995384</v>
       </c>
       <c r="AD12">
-        <v>120</v>
+        <v>1647.8</v>
       </c>
       <c r="AE12">
-        <v>2.320630897514945</v>
+        <v>24.88108319308812</v>
       </c>
       <c r="AF12">
-        <v>122.3206308975149</v>
+        <v>1672.681083193088</v>
       </c>
       <c r="AG12">
-        <v>109.1206308975149</v>
+        <v>1647.581083193088</v>
       </c>
       <c r="AH12">
-        <v>0.4229318998369073</v>
+        <v>0.2864483511801277</v>
       </c>
       <c r="AI12">
-        <v>0.4260252233186829</v>
+        <v>0.7322571182242277</v>
       </c>
       <c r="AJ12">
-        <v>0.3953350535526849</v>
+        <v>0.2833679795694138</v>
       </c>
       <c r="AK12">
-        <v>0.3983658716759508</v>
+        <v>0.7292824357684622</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>88.23529411764706</v>
+        <v>108.4078947368421</v>
       </c>
       <c r="AP12">
-        <v>80.23575801287863</v>
+        <v>108.3934923153348</v>
       </c>
     </row>
     <row r="13">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Krungthai Card Public Company Limited (SET:KTC)</t>
+          <t>Mida Assets Public Company Limited (SET:MIDA)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2032,118 +2032,115 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.154</v>
-      </c>
-      <c r="E13">
-        <v>0.284</v>
-      </c>
-      <c r="F13">
-        <v>0.128</v>
+        <v>-0.0136</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.2297872340425532</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2297872340425532</v>
       </c>
       <c r="I13">
-        <v>0.01014821529149217</v>
+        <v>0.1128968333365095</v>
       </c>
       <c r="J13">
-        <v>0.008122230895759395</v>
+        <v>0.05644841666825477</v>
       </c>
       <c r="K13">
-        <v>177.6</v>
+        <v>-2.93</v>
       </c>
       <c r="L13">
-        <v>0.3780332056194125</v>
+        <v>-0.04156028368794326</v>
       </c>
       <c r="M13">
-        <v>69.09999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.02032173631738376</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.3890765765765766</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>69.09999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.02032173631738376</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.3890765765765766</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>38.3</v>
+        <v>3.93</v>
       </c>
       <c r="V13">
-        <v>0.01126371202540952</v>
+        <v>0.0960880195599022</v>
       </c>
       <c r="W13">
-        <v>0.3795682838213293</v>
+        <v>-0.02283710054559626</v>
       </c>
       <c r="X13">
-        <v>0.03356040059624006</v>
+        <v>0.05169328236217789</v>
       </c>
       <c r="Y13">
-        <v>0.3460078832250893</v>
+        <v>-0.07453038290777415</v>
       </c>
       <c r="Z13">
-        <v>0.2358715736125086</v>
+        <v>0.2457740235195201</v>
       </c>
       <c r="AA13">
-        <v>0.001915803382626904</v>
+        <v>0.01387355448586332</v>
       </c>
       <c r="AB13">
-        <v>0.03509609826349892</v>
+        <v>0.0359628292230519</v>
       </c>
       <c r="AC13">
-        <v>-0.03318029488087202</v>
+        <v>-0.02208927473718858</v>
       </c>
       <c r="AD13">
-        <v>1759.7</v>
+        <v>158.6</v>
       </c>
       <c r="AE13">
-        <v>13.66184228028489</v>
+        <v>0.8988662488803789</v>
       </c>
       <c r="AF13">
-        <v>1773.361842280285</v>
+        <v>159.4988662488804</v>
       </c>
       <c r="AG13">
-        <v>1735.061842280285</v>
+        <v>155.5688662488804</v>
       </c>
       <c r="AH13">
-        <v>0.3427672500332333</v>
+        <v>0.7959070289888504</v>
       </c>
       <c r="AI13">
-        <v>0.7460623939082884</v>
+        <v>0.4982800099168994</v>
       </c>
       <c r="AJ13">
-        <v>0.3378655478558947</v>
+        <v>0.7918245227302874</v>
       </c>
       <c r="AK13">
-        <v>0.7419036865066961</v>
+        <v>0.492043597127683</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>7.119999999999999</v>
       </c>
       <c r="AN13">
-        <v>234.6266666666667</v>
+        <v>12.64853656591435</v>
+      </c>
+      <c r="AO13">
+        <v>0.8899297423887589</v>
       </c>
       <c r="AP13">
-        <v>231.3415789707047</v>
+        <v>12.40680008364944</v>
+      </c>
+      <c r="AQ13">
+        <v>1.067415730337079</v>
       </c>
     </row>
     <row r="14">
@@ -2154,7 +2151,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S 11 Group Public Company Limited (SET:S11)</t>
+          <t>Krungthai Card Public Company Limited (SET:KTC)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2163,10 +2160,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.175</v>
+        <v>0.107</v>
       </c>
       <c r="E14">
-        <v>0.267</v>
+        <v>0.221</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2175,34 +2172,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.009566176395787591</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.007652941116630074</v>
       </c>
       <c r="K14">
-        <v>16.8</v>
+        <v>168.8</v>
       </c>
       <c r="L14">
-        <v>0.4210526315789474</v>
+        <v>0.3849486887115166</v>
       </c>
       <c r="M14">
-        <v>7.81</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="N14">
-        <v>0.05155115511551155</v>
+        <v>0.01406934877896055</v>
       </c>
       <c r="O14">
-        <v>0.4648809523809523</v>
+        <v>0.4259478672985782</v>
       </c>
       <c r="P14">
-        <v>7.81</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="Q14">
-        <v>0.05155115511551155</v>
+        <v>0.01406934877896055</v>
       </c>
       <c r="R14">
-        <v>0.4648809523809523</v>
+        <v>0.4259478672985782</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2211,61 +2208,67 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1.14</v>
+        <v>101.5</v>
       </c>
       <c r="V14">
-        <v>0.007524752475247524</v>
+        <v>0.019861458985598</v>
       </c>
       <c r="W14">
-        <v>0.2448979591836735</v>
+        <v>0.2800730048116808</v>
       </c>
       <c r="X14">
-        <v>0.03598894882399387</v>
+        <v>0.0224777653174722</v>
       </c>
       <c r="Y14">
-        <v>0.2089090103596796</v>
+        <v>0.2575952394942086</v>
       </c>
       <c r="Z14">
-        <v>0.237281079955993</v>
+        <v>0.1879331764691167</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>0.001438241533379398</v>
       </c>
       <c r="AB14">
-        <v>0.03474979345541657</v>
+        <v>0.02356098386072729</v>
       </c>
       <c r="AC14">
-        <v>-0.03474979345541657</v>
+        <v>-0.02212274232734789</v>
       </c>
       <c r="AD14">
-        <v>124.4</v>
+        <v>1783.4</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>9.176158252235709</v>
       </c>
       <c r="AF14">
-        <v>124.4</v>
+        <v>1792.576158252236</v>
       </c>
       <c r="AG14">
-        <v>123.26</v>
+        <v>1691.076158252236</v>
       </c>
       <c r="AH14">
-        <v>0.4508880028996013</v>
+        <v>0.2596816383480163</v>
       </c>
       <c r="AI14">
-        <v>0.6047642197374818</v>
+        <v>0.7249538732638908</v>
       </c>
       <c r="AJ14">
-        <v>0.4486096957344592</v>
+        <v>0.2486336964072795</v>
       </c>
       <c r="AK14">
-        <v>0.602561595619867</v>
+        <v>0.7131803144894585</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>295.75456053068</v>
+      </c>
+      <c r="AP14">
+        <v>280.4438073386792</v>
       </c>
     </row>
     <row r="15">
@@ -2276,7 +2279,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lease IT Public Company Limited (SET:LIT)</t>
+          <t>Micro Leasing Public Company Limited (SET:MICRO)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2284,12 +2287,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D15">
-        <v>0.256</v>
-      </c>
-      <c r="E15">
-        <v>0.267</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -2297,103 +2294,94 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.004303805892493856</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.003299830589956695</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4.47</v>
+        <v>4.04</v>
       </c>
       <c r="L15">
-        <v>0.4492462311557789</v>
+        <v>0.4320855614973262</v>
       </c>
       <c r="M15">
-        <v>2.38</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.07083333333333333</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>0.5324384787472036</v>
+        <v>-0</v>
       </c>
       <c r="P15">
-        <v>2.38</v>
+        <v>-0</v>
       </c>
       <c r="Q15">
-        <v>0.07083333333333333</v>
+        <v>-0</v>
       </c>
       <c r="R15">
-        <v>0.5324384787472036</v>
+        <v>-0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
-        <v>5.82</v>
+        <v>20.7</v>
       </c>
       <c r="V15">
-        <v>0.1732142857142857</v>
+        <v>0.1367239101717305</v>
       </c>
       <c r="W15">
-        <v>0.1354545454545454</v>
+        <v>0.1181286549707602</v>
       </c>
       <c r="X15">
-        <v>0.04102183894398749</v>
+        <v>0.02152043306232678</v>
       </c>
       <c r="Y15">
-        <v>0.09443270651055795</v>
+        <v>0.09660822190843343</v>
       </c>
       <c r="Z15">
-        <v>0.1479974553776602</v>
+        <v>0.1575400168491997</v>
       </c>
       <c r="AA15">
-        <v>0.0004883665304909539</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.03642708793452239</v>
+        <v>0.02413263001526589</v>
       </c>
       <c r="AC15">
-        <v>-0.03593872140403144</v>
+        <v>-0.02413263001526589</v>
       </c>
       <c r="AD15">
-        <v>48.4</v>
+        <v>35.5</v>
       </c>
       <c r="AE15">
-        <v>0.05088565684843069</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>48.45088565684843</v>
+        <v>35.5</v>
       </c>
       <c r="AG15">
-        <v>42.63088565684843</v>
+        <v>14.8</v>
       </c>
       <c r="AH15">
-        <v>0.5904980216725356</v>
+        <v>0.1899411449973248</v>
       </c>
       <c r="AI15">
-        <v>0.5670027324399691</v>
+        <v>0.3862894450489662</v>
       </c>
       <c r="AJ15">
-        <v>0.5592337710563979</v>
+        <v>0.08904933814681107</v>
       </c>
       <c r="AK15">
-        <v>0.5353561662061218</v>
+        <v>0.2078651685393259</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>913.2075471698113</v>
-      </c>
-      <c r="AP15">
-        <v>804.3563331480835</v>
       </c>
     </row>
     <row r="16">
@@ -2404,7 +2392,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AEON Thana Sinsap (Thailand) Public Company Limited (SET:AEONTS)</t>
+          <t>SGF Capital Public Company Limited (SET:SGF)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2413,13 +2401,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.07240000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.0776</v>
-      </c>
-      <c r="F16">
-        <v>0.17</v>
+        <v>0.189</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2428,91 +2410,88 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02142380230395121</v>
+        <v>0.02214315269624213</v>
       </c>
       <c r="J16">
-        <v>0.01722057599891092</v>
+        <v>0.02214315269624213</v>
       </c>
       <c r="K16">
-        <v>119.1</v>
+        <v>-0.458</v>
       </c>
       <c r="L16">
-        <v>0.2660857908847185</v>
+        <v>-0.08120567375886525</v>
       </c>
       <c r="M16">
-        <v>39.7</v>
+        <v>-0</v>
       </c>
       <c r="N16">
-        <v>0.02490277255049555</v>
+        <v>-0</v>
       </c>
       <c r="O16">
-        <v>0.3333333333333334</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>39.7</v>
+        <v>-0</v>
       </c>
       <c r="Q16">
-        <v>0.02490277255049555</v>
+        <v>-0</v>
       </c>
       <c r="R16">
-        <v>0.3333333333333334</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
       <c r="U16">
-        <v>152.8</v>
+        <v>3.74</v>
       </c>
       <c r="V16">
-        <v>0.09584744699535817</v>
+        <v>0.1033149171270718</v>
       </c>
       <c r="W16">
-        <v>0.2301004636785162</v>
+        <v>-0.007749576988155669</v>
       </c>
       <c r="X16">
-        <v>0.04095030602150949</v>
+        <v>0.02347896664052661</v>
       </c>
       <c r="Y16">
-        <v>0.1891501576570067</v>
+        <v>-0.03122854362868228</v>
       </c>
       <c r="Z16">
-        <v>0.1883558124941181</v>
+        <v>0.07528978246933375</v>
       </c>
       <c r="AA16">
-        <v>0.003243595583891576</v>
+        <v>0.001667153149685311</v>
       </c>
       <c r="AB16">
-        <v>0.03923650679707125</v>
+        <v>0.02619004507178535</v>
       </c>
       <c r="AC16">
-        <v>-0.03599291121317967</v>
+        <v>-0.02452289192210004</v>
       </c>
       <c r="AD16">
-        <v>2261.7</v>
+        <v>16.9</v>
       </c>
       <c r="AE16">
-        <v>23.05353044375718</v>
+        <v>0.200563093965972</v>
       </c>
       <c r="AF16">
-        <v>2284.753530443757</v>
+        <v>17.10056309396597</v>
       </c>
       <c r="AG16">
-        <v>2131.953530443757</v>
+        <v>13.36056309396597</v>
       </c>
       <c r="AH16">
-        <v>0.5890128645553478</v>
+        <v>0.320832691088434</v>
       </c>
       <c r="AI16">
-        <v>0.7802444380891835</v>
+        <v>0.2456957578184954</v>
       </c>
       <c r="AJ16">
-        <v>0.5721593361693439</v>
+        <v>0.269580534600355</v>
       </c>
       <c r="AK16">
-        <v>0.7681460010259609</v>
+        <v>0.2028613553592596</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2521,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>159.2746478873239</v>
+        <v>102.4242424242424</v>
       </c>
       <c r="AP16">
-        <v>150.1375725664618</v>
+        <v>80.97310966039981</v>
       </c>
     </row>
     <row r="17">
@@ -2535,7 +2514,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mida Leasing Public Company Limited (SET:ML)</t>
+          <t>S 11 Group Public Company Limited (SET:S11)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2544,10 +2523,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.05139999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="E17">
-        <v>-0.0283</v>
+        <v>0.109</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2556,88 +2535,91 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.003227104963620302</v>
+        <v>0.0002950645095854915</v>
       </c>
       <c r="J17">
-        <v>0.00250172883299162</v>
+        <v>0.0002360516076683932</v>
       </c>
       <c r="K17">
-        <v>2.6</v>
+        <v>16.8</v>
       </c>
       <c r="L17">
-        <v>0.203125</v>
+        <v>0.4168734491315137</v>
       </c>
       <c r="M17">
-        <v>-0</v>
+        <v>5.44</v>
       </c>
       <c r="N17">
-        <v>-0</v>
+        <v>0.03550913838120105</v>
       </c>
       <c r="O17">
-        <v>-0</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="P17">
-        <v>-0</v>
+        <v>5.44</v>
       </c>
       <c r="Q17">
-        <v>-0</v>
+        <v>0.03550913838120105</v>
       </c>
       <c r="R17">
-        <v>-0</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
       <c r="U17">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="V17">
-        <v>0.04919093851132687</v>
+        <v>0.008159268929503917</v>
       </c>
       <c r="W17">
-        <v>0.04727272727272727</v>
+        <v>0.2066420664206642</v>
       </c>
       <c r="X17">
-        <v>0.04357331529890442</v>
+        <v>0.02585968906594519</v>
       </c>
       <c r="Y17">
-        <v>0.003699411973822855</v>
+        <v>0.180782377354719</v>
       </c>
       <c r="Z17">
-        <v>0.1149595979211142</v>
+        <v>0.1966471950879205</v>
       </c>
       <c r="AA17">
-        <v>0.0002875977407483748</v>
+        <v>4.641888654398378e-05</v>
       </c>
       <c r="AB17">
-        <v>0.03698881540173762</v>
+        <v>0.02620097502622497</v>
       </c>
       <c r="AC17">
-        <v>-0.03670121766098925</v>
+        <v>-0.02615455613968099</v>
       </c>
       <c r="AD17">
-        <v>54.2</v>
+        <v>116.3</v>
       </c>
       <c r="AE17">
-        <v>0.08346528232830067</v>
+        <v>0.3755445013185235</v>
       </c>
       <c r="AF17">
-        <v>54.2834652823283</v>
+        <v>116.6755445013185</v>
       </c>
       <c r="AG17">
-        <v>52.7634652823283</v>
+        <v>115.4255445013185</v>
       </c>
       <c r="AH17">
-        <v>0.6372535456548238</v>
+        <v>0.432330927638938</v>
       </c>
       <c r="AI17">
-        <v>0.4716877889378591</v>
+        <v>0.5683850201677049</v>
       </c>
       <c r="AJ17">
-        <v>0.6306631586950676</v>
+        <v>0.4296893830986798</v>
       </c>
       <c r="AK17">
-        <v>0.4646165485629898</v>
+        <v>0.5657406516592955</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2646,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>934.4827586206897</v>
+        <v>1336.781609195402</v>
       </c>
       <c r="AP17">
-        <v>909.7149186608327</v>
+        <v>1326.73039656688</v>
       </c>
     </row>
     <row r="18">
@@ -2660,7 +2642,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ratchthani Leasing Public Company Limited (SET:THANI)</t>
+          <t>AEON Thana Sinsap (Thailand) Public Company Limited (SET:AEONTS)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2669,10 +2651,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.191</v>
+        <v>0.0607</v>
       </c>
       <c r="E18">
-        <v>0.224</v>
+        <v>0.08</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2681,34 +2663,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0008342026010854628</v>
+        <v>0.0244121844979349</v>
       </c>
       <c r="J18">
-        <v>0.0006650506882709042</v>
+        <v>0.01913983076261701</v>
       </c>
       <c r="K18">
-        <v>63.3</v>
+        <v>114</v>
       </c>
       <c r="L18">
-        <v>0.6512345679012346</v>
+        <v>0.2659822678488101</v>
       </c>
       <c r="M18">
-        <v>48.4</v>
+        <v>41.5</v>
       </c>
       <c r="N18">
-        <v>0.06620161400629189</v>
+        <v>0.02454749792972909</v>
       </c>
       <c r="O18">
-        <v>0.764612954186414</v>
+        <v>0.3640350877192983</v>
       </c>
       <c r="P18">
-        <v>48.4</v>
+        <v>41.5</v>
       </c>
       <c r="Q18">
-        <v>0.06620161400629189</v>
+        <v>0.02454749792972909</v>
       </c>
       <c r="R18">
-        <v>0.764612954186414</v>
+        <v>0.3640350877192983</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2717,55 +2699,55 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>17.3</v>
+        <v>153.7</v>
       </c>
       <c r="V18">
-        <v>0.02366297360142251</v>
+        <v>0.09091446823612918</v>
       </c>
       <c r="W18">
-        <v>0.3034515819750719</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="X18">
-        <v>0.04480041471479322</v>
+        <v>0.03047652972607696</v>
       </c>
       <c r="Y18">
-        <v>0.2586511672602786</v>
+        <v>0.1499032171093661</v>
       </c>
       <c r="Z18">
-        <v>0.07039297644769585</v>
+        <v>0.1549202530335866</v>
       </c>
       <c r="AA18">
-        <v>4.681489743597768e-05</v>
+        <v>0.002965147424764652</v>
       </c>
       <c r="AB18">
-        <v>0.03721566860304917</v>
+        <v>0.03130364371176022</v>
       </c>
       <c r="AC18">
-        <v>-0.03716885370561319</v>
+        <v>-0.02833849628699557</v>
       </c>
       <c r="AD18">
-        <v>1394.8</v>
+        <v>2210</v>
       </c>
       <c r="AE18">
-        <v>0.229577535872465</v>
+        <v>25.6846886209255</v>
       </c>
       <c r="AF18">
-        <v>1395.029577535872</v>
+        <v>2235.684688620925</v>
       </c>
       <c r="AG18">
-        <v>1377.729577535873</v>
+        <v>2081.984688620926</v>
       </c>
       <c r="AH18">
-        <v>0.6561357276975914</v>
+        <v>0.5694148198423663</v>
       </c>
       <c r="AI18">
-        <v>0.8558833441410875</v>
+        <v>0.8191167400995968</v>
       </c>
       <c r="AJ18">
-        <v>0.6533148018275253</v>
+        <v>0.5518722203641235</v>
       </c>
       <c r="AK18">
-        <v>0.854337286583239</v>
+        <v>0.8083228113359104</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2774,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>10982.67716535433</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="AP18">
-        <v>10848.26439004624</v>
+        <v>133.4605569628798</v>
       </c>
     </row>
     <row r="19">
@@ -2788,7 +2770,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>G Capital Public Company Limited (SET:GCAP)</t>
+          <t>Ratchthani Leasing Public Company Limited (SET:THANI)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2797,10 +2779,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.103</v>
+        <v>0.173</v>
       </c>
       <c r="E19">
-        <v>0.0172</v>
+        <v>0.208</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2809,34 +2791,34 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.04059089784010936</v>
+        <v>0.001150477974059204</v>
       </c>
       <c r="J19">
-        <v>0.03242496427462854</v>
+        <v>0.000916035094055237</v>
       </c>
       <c r="K19">
-        <v>2.03</v>
+        <v>59</v>
       </c>
       <c r="L19">
-        <v>0.3176838810641627</v>
+        <v>0.6441048034934498</v>
       </c>
       <c r="M19">
-        <v>1.67</v>
+        <v>19.1</v>
       </c>
       <c r="N19">
-        <v>0.07522522522522522</v>
+        <v>0.02433741080530072</v>
       </c>
       <c r="O19">
-        <v>0.8226600985221675</v>
+        <v>0.323728813559322</v>
       </c>
       <c r="P19">
-        <v>1.67</v>
+        <v>19.1</v>
       </c>
       <c r="Q19">
-        <v>0.07522522522522522</v>
+        <v>0.02433741080530072</v>
       </c>
       <c r="R19">
-        <v>0.8226600985221675</v>
+        <v>0.323728813559322</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2845,55 +2827,55 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>2.14</v>
+        <v>35.4</v>
       </c>
       <c r="V19">
-        <v>0.09639639639639641</v>
+        <v>0.04510703363914373</v>
       </c>
       <c r="W19">
-        <v>0.200990099009901</v>
+        <v>0.2511707109408259</v>
       </c>
       <c r="X19">
-        <v>0.05096141269106676</v>
+        <v>0.03264399312633066</v>
       </c>
       <c r="Y19">
-        <v>0.1500286863188342</v>
+        <v>0.2185267178144952</v>
       </c>
       <c r="Z19">
-        <v>0.115294842768668</v>
+        <v>0.05680028089736113</v>
       </c>
       <c r="AA19">
-        <v>0.003738431157822973</v>
+        <v>5.203105065417809e-05</v>
       </c>
       <c r="AB19">
-        <v>0.04156309275627645</v>
+        <v>0.02896756637875827</v>
       </c>
       <c r="AC19">
-        <v>-0.03782466159845348</v>
+        <v>-0.0289155353281041</v>
       </c>
       <c r="AD19">
-        <v>58.5</v>
+        <v>1244.2</v>
       </c>
       <c r="AE19">
-        <v>0.7331208140085059</v>
+        <v>0.2680810878808844</v>
       </c>
       <c r="AF19">
-        <v>59.23312081400851</v>
+        <v>1244.468081087881</v>
       </c>
       <c r="AG19">
-        <v>57.09312081400851</v>
+        <v>1209.068081087881</v>
       </c>
       <c r="AH19">
-        <v>0.7273836520314096</v>
+        <v>0.6132595750585735</v>
       </c>
       <c r="AI19">
-        <v>0.770932121283936</v>
+        <v>0.8230782756951256</v>
       </c>
       <c r="AJ19">
-        <v>0.7200261539450219</v>
+        <v>0.6063932175634194</v>
       </c>
       <c r="AK19">
-        <v>0.7643691974817155</v>
+        <v>0.8188366635943289</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2902,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>144.0886699507389</v>
+        <v>7825.157232704402</v>
       </c>
       <c r="AP19">
-        <v>140.6234502808091</v>
+        <v>7604.201767848306</v>
       </c>
     </row>
     <row r="20">
@@ -2916,7 +2898,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Group Lease Public Company Limited (SET:GL)</t>
+          <t>Lease IT Public Company Limited (SET:LIT)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2925,10 +2907,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.117</v>
+        <v>0.0931</v>
       </c>
       <c r="E20">
-        <v>0.132</v>
+        <v>-0.0398</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2937,88 +2919,91 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.009634973123594541</v>
+        <v>0.02416708361421929</v>
       </c>
       <c r="J20">
-        <v>0.00481748656179727</v>
+        <v>0.0139914694608638</v>
       </c>
       <c r="K20">
-        <v>2.16</v>
+        <v>1.66</v>
       </c>
       <c r="L20">
-        <v>0.03877917414721724</v>
+        <v>0.2368045649072753</v>
       </c>
       <c r="M20">
-        <v>-0</v>
+        <v>1.68</v>
       </c>
       <c r="N20">
-        <v>-0</v>
+        <v>0.06536964980544747</v>
       </c>
       <c r="O20">
-        <v>-0</v>
+        <v>1.012048192771084</v>
       </c>
       <c r="P20">
-        <v>-0</v>
+        <v>1.68</v>
       </c>
       <c r="Q20">
-        <v>-0</v>
+        <v>0.06536964980544747</v>
       </c>
       <c r="R20">
-        <v>-0</v>
+        <v>1.012048192771084</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
       <c r="U20">
-        <v>98.2</v>
+        <v>5.4</v>
       </c>
       <c r="V20">
-        <v>0.4546296296296297</v>
+        <v>0.2101167315175098</v>
       </c>
       <c r="W20">
-        <v>0.01214165261382799</v>
+        <v>0.04486486486486486</v>
       </c>
       <c r="X20">
-        <v>0.03686934631650534</v>
+        <v>0.03374111086676009</v>
       </c>
       <c r="Y20">
-        <v>-0.02472769370267735</v>
+        <v>0.01112375399810478</v>
       </c>
       <c r="Z20">
-        <v>0.1820132601160187</v>
+        <v>0.08756157945520861</v>
       </c>
       <c r="AA20">
-        <v>0.0008768464346778311</v>
+        <v>0.00122511516489255</v>
       </c>
       <c r="AB20">
-        <v>0.03889834290444774</v>
+        <v>0.03259552770140876</v>
       </c>
       <c r="AC20">
-        <v>-0.03802149646976991</v>
+        <v>-0.03137041253651621</v>
       </c>
       <c r="AD20">
-        <v>198.9</v>
+        <v>43.7</v>
       </c>
       <c r="AE20">
-        <v>1.921659985078921</v>
+        <v>0.4779437193216139</v>
       </c>
       <c r="AF20">
-        <v>200.8216599850789</v>
+        <v>44.17794371932162</v>
       </c>
       <c r="AG20">
-        <v>102.6216599850789</v>
+        <v>38.77794371932162</v>
       </c>
       <c r="AH20">
-        <v>0.4817927647816282</v>
+        <v>0.6322158519256225</v>
       </c>
       <c r="AI20">
-        <v>0.5094130545558555</v>
+        <v>0.5694652577948986</v>
       </c>
       <c r="AJ20">
-        <v>0.3220799866207611</v>
+        <v>0.601414088019394</v>
       </c>
       <c r="AK20">
-        <v>0.3466694294946241</v>
+        <v>0.5372547584635746</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -3027,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>215.9609120521173</v>
+        <v>164.9056603773585</v>
       </c>
       <c r="AP20">
-        <v>111.4241693649065</v>
+        <v>146.3318630917797</v>
       </c>
     </row>
     <row r="21">
@@ -3041,7 +3026,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Eastern Commercial Leasing Public Company Limited (SET:ECL)</t>
+          <t>Mida Leasing Public Company Limited (SET:ML)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3050,10 +3035,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.271</v>
+        <v>-0.00218</v>
       </c>
       <c r="E21">
-        <v>0.213</v>
+        <v>0.0684</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3062,88 +3047,91 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.00784896272498959</v>
+        <v>0.003996381521097658</v>
       </c>
       <c r="J21">
-        <v>0.00643326908119789</v>
+        <v>0.003158628020613729</v>
       </c>
       <c r="K21">
-        <v>4.47</v>
+        <v>3.62</v>
       </c>
       <c r="L21">
-        <v>0.2554285714285714</v>
+        <v>0.3351851851851852</v>
       </c>
       <c r="M21">
-        <v>-0</v>
+        <v>1.01</v>
       </c>
       <c r="N21">
-        <v>-0</v>
+        <v>0.02936046511627907</v>
       </c>
       <c r="O21">
-        <v>-0</v>
+        <v>0.2790055248618785</v>
       </c>
       <c r="P21">
-        <v>-0</v>
+        <v>1.01</v>
       </c>
       <c r="Q21">
-        <v>-0</v>
+        <v>0.02936046511627907</v>
       </c>
       <c r="R21">
-        <v>-0</v>
+        <v>0.2790055248618785</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
       <c r="U21">
-        <v>0.6870000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="V21">
-        <v>0.01601398601398601</v>
+        <v>0.04040697674418604</v>
       </c>
       <c r="W21">
-        <v>0.08433962264150943</v>
+        <v>0.05953947368421053</v>
       </c>
       <c r="X21">
-        <v>0.06132644090408518</v>
+        <v>0.03304618235565079</v>
       </c>
       <c r="Y21">
-        <v>0.02301318173742425</v>
+        <v>0.02649329132855974</v>
       </c>
       <c r="Z21">
-        <v>0.1012741938501696</v>
+        <v>0.09506272764434494</v>
       </c>
       <c r="AA21">
-        <v>0.0006515241400195372</v>
+        <v>0.0003002677952533993</v>
       </c>
       <c r="AB21">
-        <v>0.04274791693396276</v>
+        <v>0.03235310827537406</v>
       </c>
       <c r="AC21">
-        <v>-0.04209639279394322</v>
+        <v>-0.03205284048012066</v>
       </c>
       <c r="AD21">
-        <v>169</v>
+        <v>56.1</v>
       </c>
       <c r="AE21">
-        <v>0.318215761563411</v>
+        <v>0.1291953978607265</v>
       </c>
       <c r="AF21">
-        <v>169.3182157615634</v>
+        <v>56.22919539786073</v>
       </c>
       <c r="AG21">
-        <v>168.6312157615634</v>
+        <v>54.83919539786073</v>
       </c>
       <c r="AH21">
-        <v>0.7978495868224618</v>
+        <v>0.6204313648710601</v>
       </c>
       <c r="AI21">
-        <v>0.736748456602897</v>
+        <v>0.4751929159054968</v>
       </c>
       <c r="AJ21">
-        <v>0.7971930533016148</v>
+        <v>0.6145191600324016</v>
       </c>
       <c r="AK21">
-        <v>0.7359591542386917</v>
+        <v>0.4689547863851982</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3152,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>840.7960199004974</v>
+        <v>813.0434782608695</v>
       </c>
       <c r="AP21">
-        <v>838.961272445589</v>
+        <v>794.770947795083</v>
       </c>
     </row>
     <row r="22">
@@ -3166,7 +3154,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ASIA Capital Group Public Company Limited (SET:ACAP)</t>
+          <t>Asia Sermkij Leasing Public Company Limited (SET:ASK)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3175,7 +3163,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>-0.0295</v>
+        <v>0.0664</v>
+      </c>
+      <c r="E22">
+        <v>0.0548</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3184,100 +3175,97 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04444251192846296</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04444251192846296</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>-1.53</v>
+        <v>28.6</v>
       </c>
       <c r="L22">
-        <v>-0.3485193621867882</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="M22">
-        <v>-0</v>
+        <v>19.2</v>
       </c>
       <c r="N22">
-        <v>-0</v>
+        <v>0.07378939277478863</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.6713286713286712</v>
       </c>
       <c r="P22">
-        <v>-0</v>
+        <v>19.2</v>
       </c>
       <c r="Q22">
-        <v>-0</v>
+        <v>0.07378939277478863</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.6713286713286712</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
       <c r="U22">
-        <v>0.176</v>
+        <v>7.49</v>
       </c>
       <c r="V22">
-        <v>0.0127536231884058</v>
+        <v>0.02878554957724827</v>
       </c>
       <c r="W22">
-        <v>-0.04135135135135135</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="X22">
-        <v>0.08249274393396468</v>
+        <v>0.05635955921996644</v>
       </c>
       <c r="Y22">
-        <v>-0.123844095285316</v>
+        <v>0.1124716096112024</v>
       </c>
       <c r="Z22">
-        <v>0.02678144059628797</v>
+        <v>0.05033185840707964</v>
       </c>
       <c r="AA22">
-        <v>0.00119023449316195</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.04392220175676376</v>
+        <v>0.03208404047766237</v>
       </c>
       <c r="AC22">
-        <v>-0.04273196726360181</v>
+        <v>-0.03208404047766237</v>
       </c>
       <c r="AD22">
-        <v>90</v>
+        <v>1162.2</v>
       </c>
       <c r="AE22">
-        <v>0.499486863170238</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>90.49948686317023</v>
+        <v>1162.2</v>
       </c>
       <c r="AG22">
-        <v>90.32348686317023</v>
+        <v>1154.71</v>
       </c>
       <c r="AH22">
-        <v>0.8676887066749991</v>
+        <v>0.8170697412823397</v>
       </c>
       <c r="AI22">
-        <v>0.6809618983431146</v>
+        <v>0.8703010333982327</v>
       </c>
       <c r="AJ22">
-        <v>0.8674650608067446</v>
+        <v>0.8161013774727721</v>
       </c>
       <c r="AK22">
-        <v>0.6805388330121873</v>
+        <v>0.8695694738348231</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
         <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>305.0847457627119</v>
-      </c>
-      <c r="AP22">
-        <v>306.181311400577</v>
       </c>
     </row>
     <row r="23">
@@ -3288,7 +3276,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Asia Sermkij Leasing Public Company Limited (SET:ASK)</t>
+          <t>G Capital Public Company Limited (SET:GCAP)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3297,10 +3285,10 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.0487</v>
+        <v>0.0513</v>
       </c>
       <c r="E23">
-        <v>0.0513</v>
+        <v>-0.254</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3309,97 +3297,347 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.05772367665379339</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.04624779660333745</v>
       </c>
       <c r="K23">
-        <v>27.6</v>
+        <v>0.403</v>
       </c>
       <c r="L23">
-        <v>0.4607679465776294</v>
+        <v>0.08258196721311475</v>
       </c>
       <c r="M23">
-        <v>18.5</v>
+        <v>0.974</v>
       </c>
       <c r="N23">
-        <v>0.06174899866488651</v>
+        <v>0.05763313609467456</v>
       </c>
       <c r="O23">
-        <v>0.6702898550724637</v>
+        <v>2.416873449131514</v>
       </c>
       <c r="P23">
-        <v>18.5</v>
+        <v>0.95</v>
       </c>
       <c r="Q23">
-        <v>0.06174899866488651</v>
+        <v>0.05621301775147929</v>
       </c>
       <c r="R23">
-        <v>0.6702898550724637</v>
+        <v>2.357320099255583</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.02464065708418893</v>
       </c>
       <c r="U23">
-        <v>14.1</v>
+        <v>0.957</v>
       </c>
       <c r="V23">
-        <v>0.04706275033377837</v>
+        <v>0.05662721893491125</v>
       </c>
       <c r="W23">
-        <v>0.1818181818181818</v>
+        <v>0.02289772727272727</v>
       </c>
       <c r="X23">
-        <v>0.05937389588689855</v>
+        <v>0.0472367925690713</v>
       </c>
       <c r="Y23">
-        <v>0.1224442859312833</v>
+        <v>-0.02433906529634403</v>
       </c>
       <c r="Z23">
-        <v>0.0563838999962348</v>
+        <v>0.06540104714389945</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>0.003024654325956346</v>
       </c>
       <c r="AB23">
-        <v>0.04496795032703352</v>
+        <v>0.03544134604363849</v>
       </c>
       <c r="AC23">
-        <v>-0.04496795032703352</v>
+        <v>-0.03241669171768215</v>
       </c>
       <c r="AD23">
-        <v>1110.3</v>
+        <v>56.1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>0.6565422896474412</v>
       </c>
       <c r="AF23">
-        <v>1110.3</v>
+        <v>56.75654228964744</v>
       </c>
       <c r="AG23">
-        <v>1096.2</v>
+        <v>55.79954228964744</v>
       </c>
       <c r="AH23">
-        <v>0.7875026597631036</v>
+        <v>0.7705567017585169</v>
       </c>
       <c r="AI23">
-        <v>0.8676252246620301</v>
+        <v>0.7758231938427632</v>
       </c>
       <c r="AJ23">
-        <v>0.7853560682046138</v>
+        <v>0.7675363631222395</v>
       </c>
       <c r="AK23">
-        <v>0.8661504424778761</v>
+        <v>0.7728517455940774</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>135.8353510895884</v>
+      </c>
+      <c r="AP23">
+        <v>135.1078505802602</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Eastern Commercial Leasing Public Company Limited (SET:ECL)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>0.24</v>
+      </c>
+      <c r="E24">
+        <v>0.06559999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.013855230861056</v>
+      </c>
+      <c r="J24">
+        <v>0.01107930608642894</v>
+      </c>
+      <c r="K24">
+        <v>2.27</v>
+      </c>
+      <c r="L24">
+        <v>0.1367469879518072</v>
+      </c>
+      <c r="M24">
+        <v>-0</v>
+      </c>
+      <c r="N24">
+        <v>-0</v>
+      </c>
+      <c r="O24">
+        <v>-0</v>
+      </c>
+      <c r="P24">
+        <v>-0</v>
+      </c>
+      <c r="Q24">
+        <v>-0</v>
+      </c>
+      <c r="R24">
+        <v>-0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>7.69</v>
+      </c>
+      <c r="V24">
+        <v>0.1826603325415677</v>
+      </c>
+      <c r="W24">
+        <v>0.03752066115702479</v>
+      </c>
+      <c r="X24">
+        <v>0.04933147466875785</v>
+      </c>
+      <c r="Y24">
+        <v>-0.01181081351173306</v>
+      </c>
+      <c r="Z24">
+        <v>0.07239013424204697</v>
+      </c>
+      <c r="AA24">
+        <v>0.000802032454905319</v>
+      </c>
+      <c r="AB24">
+        <v>0.03570170366608703</v>
+      </c>
+      <c r="AC24">
+        <v>-0.03489967121118172</v>
+      </c>
+      <c r="AD24">
+        <v>151.6</v>
+      </c>
+      <c r="AE24">
+        <v>0.5000158385323517</v>
+      </c>
+      <c r="AF24">
+        <v>152.1000158385324</v>
+      </c>
+      <c r="AG24">
+        <v>144.4100158385324</v>
+      </c>
+      <c r="AH24">
+        <v>0.7832131999669658</v>
+      </c>
+      <c r="AI24">
+        <v>0.7358490768445232</v>
+      </c>
+      <c r="AJ24">
+        <v>0.7742748569790091</v>
+      </c>
+      <c r="AK24">
+        <v>0.7256419493765583</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>459.3939393939394</v>
+      </c>
+      <c r="AP24">
+        <v>437.6061086016132</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ASIA Capital Group Public Company Limited (SET:ACAP)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>-0</v>
+      </c>
+      <c r="H25">
+        <v>-0</v>
+      </c>
+      <c r="I25">
+        <v>-0.02465852020919263</v>
+      </c>
+      <c r="J25">
+        <v>-0.02465852020919263</v>
+      </c>
+      <c r="K25">
+        <v>-11.2</v>
+      </c>
+      <c r="L25">
+        <v>1.568627450980392</v>
+      </c>
+      <c r="M25">
+        <v>-0</v>
+      </c>
+      <c r="N25">
+        <v>-0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>-0</v>
+      </c>
+      <c r="Q25">
+        <v>-0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0.057</v>
+      </c>
+      <c r="V25">
+        <v>0.004014084507042254</v>
+      </c>
+      <c r="W25">
+        <v>-0.2821158690176322</v>
+      </c>
+      <c r="X25">
+        <v>0.07227279654901773</v>
+      </c>
+      <c r="Y25">
+        <v>-0.3543886655666499</v>
+      </c>
+      <c r="Z25">
+        <v>-0.05496591193074382</v>
+      </c>
+      <c r="AA25">
+        <v>0.001355378050160949</v>
+      </c>
+      <c r="AB25">
+        <v>0.04027331002639525</v>
+      </c>
+      <c r="AC25">
+        <v>-0.0389179319762343</v>
+      </c>
+      <c r="AD25">
+        <v>90.5</v>
+      </c>
+      <c r="AE25">
+        <v>0.3746908285318232</v>
+      </c>
+      <c r="AF25">
+        <v>90.87469082853183</v>
+      </c>
+      <c r="AG25">
+        <v>90.81769082853182</v>
+      </c>
+      <c r="AH25">
+        <v>0.8648580368114283</v>
+      </c>
+      <c r="AI25">
+        <v>0.8615781673753855</v>
+      </c>
+      <c r="AJ25">
+        <v>0.86478468638979</v>
+      </c>
+      <c r="AK25">
+        <v>0.8615033218309841</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>360.5577689243028</v>
+      </c>
+      <c r="AP25">
+        <v>361.8234694363817</v>
       </c>
     </row>
   </sheetData>
